--- a/data_analysis/df_timespecific.xlsx
+++ b/data_analysis/df_timespecific.xlsx
@@ -1,92 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocpa\OneDrive\Documenti\GitHub\watchyouragent\data_analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2604C07C-7169-4563-84F7-E62218C47CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="20">
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>time.x</t>
-  </si>
-  <si>
-    <t>energiaaquisita.x</t>
-  </si>
-  <si>
-    <t>muccheslider</t>
-  </si>
-  <si>
-    <t>ccr</t>
-  </si>
-  <si>
-    <t>nrgacqweek</t>
-  </si>
-  <si>
-    <t>newnrgweek</t>
-  </si>
-  <si>
-    <t>BR02</t>
-  </si>
-  <si>
-    <t>First Simulation</t>
-  </si>
-  <si>
-    <t>azzurro</t>
-  </si>
-  <si>
-    <t>blu</t>
-  </si>
-  <si>
-    <t>giallo</t>
-  </si>
-  <si>
-    <t>rosa</t>
-  </si>
-  <si>
-    <t>rosso</t>
-  </si>
-  <si>
-    <t>Second Simulation</t>
-  </si>
-  <si>
-    <t>BR03</t>
-  </si>
-  <si>
-    <t>BR04</t>
-  </si>
-  <si>
-    <t>BR05</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -220,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,3822 +350,5002 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>turn</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>time.x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>week.x</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>energiaaquisita.x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>muccheslider</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ccr</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>nrgacqweek</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>newnrgweek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D2">
         <v>14</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>520</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
       <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>50</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>240</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>880</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
       <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>210</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>600</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>1760</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>60</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1480</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>1520</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>70</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1240</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D6">
         <v>14</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>960</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
       <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>680</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D7">
         <v>14</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>1000</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>50</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>720</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D8">
         <v>14</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>1360</v>
       </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
       <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
         <v>50</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1080</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>1110</v>
       </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
       <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
         <v>50</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>830</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>800</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
       <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
         <v>50</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>520</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D11">
         <v>14</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>920</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
       <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>50</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>640</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D12">
         <v>14</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>840</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
       <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>560</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D13">
         <v>14</v>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
         <v>840</v>
       </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
       <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>560</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D14">
         <v>14</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <v>920</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
       <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
         <v>40</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>640</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>1560</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>160</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1280</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D16">
         <v>14</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>760</v>
       </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
       <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <v>20</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>480</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D17">
         <v>14</v>
       </c>
       <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>1280</v>
       </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
       <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D18">
         <v>14</v>
       </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>520</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
       <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>90</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>240</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D19">
         <v>14</v>
       </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
         <v>960</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
       <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
         <v>50</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>680</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
       <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
         <v>1160</v>
       </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
       <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
         <v>170</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>880</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D21">
         <v>14</v>
       </c>
       <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>1640</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>6</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>60</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1360</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D22">
         <v>14</v>
       </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>800</v>
       </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
       <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>520</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D23">
         <v>14</v>
       </c>
       <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>760</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
       <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
         <v>100</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>480</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D24">
         <v>14</v>
       </c>
       <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
         <v>680</v>
       </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
       <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <v>20</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>400</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D25">
         <v>14</v>
       </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
         <v>560</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>30</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>280</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D26">
         <v>14</v>
       </c>
       <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
         <v>2280</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>9</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>90</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D27">
         <v>14</v>
       </c>
       <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
         <v>830</v>
       </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
       <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
         <v>0</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>550</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D28">
         <v>14</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
         <v>900</v>
       </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
       <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
         <v>100</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>640</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D29">
         <v>14</v>
       </c>
       <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
         <v>1240</v>
       </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
       <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
         <v>180</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>960</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1800</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D30">
         <v>14</v>
       </c>
       <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
         <v>1680</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>6</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>10</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1400</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D31">
         <v>14</v>
       </c>
       <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>960</v>
       </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
       <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
         <v>150</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>680</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1500</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D32">
         <v>14</v>
       </c>
       <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>960</v>
       </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
       <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
         <v>20</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>680</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D33">
         <v>14</v>
       </c>
       <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
         <v>560</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>40</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>280</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D34">
         <v>14</v>
       </c>
       <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
         <v>1120</v>
       </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
       <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
         <v>20</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>840</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D35">
         <v>14</v>
       </c>
       <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
         <v>840</v>
       </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
       <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
         <v>30</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>560</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D36">
         <v>14</v>
       </c>
       <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
         <v>840</v>
       </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
       <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
         <v>40</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>560</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D37">
         <v>14</v>
       </c>
       <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
         <v>1390</v>
       </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
       <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
         <v>40</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1110</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D38">
         <v>14</v>
       </c>
       <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
         <v>790</v>
       </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
       <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
         <v>130</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>520</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>1300</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D39">
         <v>14</v>
       </c>
       <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
         <v>840</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
       <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
         <v>60</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>560</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D40">
         <v>14</v>
       </c>
       <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
         <v>800</v>
       </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
       <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
         <v>70</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>520</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D41">
         <v>14</v>
       </c>
       <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
         <v>1030</v>
       </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
       <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
         <v>20</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>750</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D42">
         <v>21</v>
       </c>
       <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
         <v>1640</v>
       </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
       <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
         <v>40</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>1120</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D43">
         <v>21</v>
       </c>
       <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
         <v>2960</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>11</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>100</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>2080</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D44">
         <v>21</v>
       </c>
       <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
         <v>2960</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>5</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>70</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>1200</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D45">
         <v>21</v>
       </c>
       <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
         <v>2240</v>
       </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
       <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
         <v>120</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>720</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D46">
         <v>21</v>
       </c>
       <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
         <v>1720</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>5</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>200</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>760</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D47">
         <v>21</v>
       </c>
       <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
         <v>1840</v>
       </c>
-      <c r="F47">
-        <v>4</v>
-      </c>
       <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
         <v>150</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>840</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>1500</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D48">
         <v>21</v>
       </c>
       <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
         <v>3080</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>8</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>100</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1720</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D49">
         <v>21</v>
       </c>
       <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
         <v>3790</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>13</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>210</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>2680</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D50">
         <v>21</v>
       </c>
       <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
         <v>1560</v>
       </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
       <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
         <v>150</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>760</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1500</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D51">
         <v>21</v>
       </c>
       <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
         <v>1960</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>5</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>150</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1040</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>1500</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D52">
         <v>21</v>
       </c>
       <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
         <v>1240</v>
       </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
       <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
         <v>100</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>400</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>12</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D53">
         <v>21</v>
       </c>
       <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
         <v>1120</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>1</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>60</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>280</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>600</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>13</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D54">
         <v>21</v>
       </c>
       <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
         <v>2080</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>5</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>70</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1160</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D55">
         <v>21</v>
       </c>
       <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
         <v>1720</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>1</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>530</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>160</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>5300</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D56">
         <v>21</v>
       </c>
       <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
         <v>2190</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>6</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>40</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>1430</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>400</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D57">
         <v>21</v>
       </c>
       <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
         <v>3040</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>11</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>50</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>1760</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D58">
         <v>21</v>
       </c>
       <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
         <v>720</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>1</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>180</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>200</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
-        <v>13</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D59">
         <v>21</v>
       </c>
       <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
         <v>2020</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>6</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>80</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>1060</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D60">
         <v>21</v>
       </c>
       <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
         <v>3240</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>12</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>490</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>2080</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>4900</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" t="s">
-        <v>15</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D61">
         <v>21</v>
       </c>
       <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
         <v>3260</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>7</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>70</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>1620</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>11</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D62">
         <v>21</v>
       </c>
       <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
         <v>1440</v>
       </c>
-      <c r="F62">
-        <v>3</v>
-      </c>
       <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
         <v>160</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>640</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>1600</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D63">
         <v>21</v>
       </c>
       <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
         <v>1840</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>6</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>140</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>1080</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>1400</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>13</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D64">
         <v>21</v>
       </c>
       <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
         <v>5130</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>23</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>200</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>4450</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>2000</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D65">
         <v>21</v>
       </c>
       <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
         <v>1000</v>
       </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
       <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
         <v>80</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>440</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>800</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>15</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D66">
         <v>21</v>
       </c>
       <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
         <v>3200</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>7</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>260</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>920</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>2600</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D67">
         <v>21</v>
       </c>
       <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
         <v>1750</v>
       </c>
-      <c r="F67">
-        <v>4</v>
-      </c>
       <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
         <v>170</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>920</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>1700</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D68">
         <v>21</v>
       </c>
       <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
         <v>2180</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>7</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>200</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>1280</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>2000</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" t="s">
-        <v>13</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D69">
         <v>21</v>
       </c>
       <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
         <v>2920</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>8</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>580</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>1680</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>5800</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D70">
         <v>21</v>
       </c>
       <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
         <v>2160</v>
       </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
       <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
         <v>0</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>480</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" t="s">
-        <v>15</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D71">
         <v>21</v>
       </c>
       <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
         <v>1840</v>
       </c>
-      <c r="F71">
-        <v>4</v>
-      </c>
       <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71">
         <v>250</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>880</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>2500</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D72">
         <v>21</v>
       </c>
       <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
         <v>2120</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>5</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>80</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>1160</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>800</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>12</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D73">
         <v>21</v>
       </c>
       <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
         <v>800</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>50</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>240</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s">
-        <v>13</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D74">
         <v>21</v>
       </c>
       <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
         <v>1920</v>
       </c>
-      <c r="F74">
-        <v>4</v>
-      </c>
       <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74">
         <v>40</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>800</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>14</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D75">
         <v>21</v>
       </c>
       <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
         <v>1640</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>5</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>60</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>800</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>600</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
-        <v>15</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D76">
         <v>21</v>
       </c>
       <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
         <v>1560</v>
       </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
       <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
         <v>70</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>720</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>700</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D77">
         <v>21</v>
       </c>
       <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
         <v>2630</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>6</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>60</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>1240</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>600</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" t="s">
-        <v>12</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D78">
         <v>21</v>
       </c>
       <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
         <v>1390</v>
       </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
       <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
         <v>300</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>600</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>3000</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s">
-        <v>13</v>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D79">
         <v>21</v>
       </c>
       <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
         <v>1280</v>
       </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
       <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
         <v>200</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>440</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>2000</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" t="s">
-        <v>14</v>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D80">
         <v>21</v>
       </c>
       <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
         <v>1080</v>
       </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
       <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
         <v>170</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>280</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>1700</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" t="s">
-        <v>15</v>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D81">
         <v>21</v>
       </c>
       <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
         <v>3190</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>9</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>60</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>2160</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>600</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D82">
         <v>28</v>
       </c>
       <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
         <v>1910</v>
       </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
       <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
         <v>70</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>270</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>700</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>12</v>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D83">
         <v>28</v>
       </c>
       <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
         <v>8090</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>46</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>550</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>5130</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>5500</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>13</v>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D84">
         <v>28</v>
       </c>
       <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
         <v>4140</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>11</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>210</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>1180</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>2100</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>14</v>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D85">
         <v>28</v>
       </c>
       <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
         <v>2840</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>6</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>200</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>600</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>2000</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>15</v>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D86">
         <v>28</v>
       </c>
       <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
         <v>3750</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>15</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>400</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>2030</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>4000</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" t="s">
-        <v>11</v>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D87">
         <v>28</v>
       </c>
       <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
         <v>2640</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>5</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>120</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>800</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>1200</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" t="s">
-        <v>12</v>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D88">
         <v>28</v>
       </c>
       <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
         <v>4670</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>10</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>220</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>1590</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>2200</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" t="s">
-        <v>13</v>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D89">
         <v>28</v>
       </c>
       <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
         <v>5620</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>12</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>600</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>1830</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>6000</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" t="s">
-        <v>14</v>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D90">
         <v>28</v>
       </c>
       <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
         <v>2440</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>6</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>200</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>880</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>2000</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" t="s">
-        <v>15</v>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D91">
         <v>28</v>
       </c>
       <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
         <v>3560</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>11</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>200</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>1600</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>2000</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" t="s">
-        <v>11</v>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D92">
         <v>28</v>
       </c>
       <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
         <v>2200</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>5</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>100</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>960</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>1000</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>17</v>
-      </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" t="s">
-        <v>12</v>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D93">
         <v>28</v>
       </c>
       <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
         <v>1400</v>
       </c>
-      <c r="F93">
-        <v>2</v>
-      </c>
       <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
         <v>160</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>280</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>1600</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>17</v>
-      </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
-        <v>13</v>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D94">
         <v>28</v>
       </c>
       <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
         <v>3560</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>7</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>140</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>1480</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>1400</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>17</v>
-      </c>
-      <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" t="s">
-        <v>14</v>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D95">
         <v>28</v>
       </c>
       <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
         <v>3880</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>11</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>370</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>2160</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>3700</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>17</v>
-      </c>
-      <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" t="s">
-        <v>15</v>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D96">
         <v>28</v>
       </c>
       <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
         <v>2870</v>
       </c>
-      <c r="F96">
-        <v>4</v>
-      </c>
       <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96">
         <v>60</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>680</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>600</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>17</v>
-      </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" t="s">
-        <v>11</v>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D97">
         <v>28</v>
       </c>
       <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
         <v>6410</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>22</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>30</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>3370</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>17</v>
-      </c>
-      <c r="B98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" t="s">
-        <v>12</v>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D98">
         <v>28</v>
       </c>
       <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
         <v>920</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>1</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>150</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>200</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>1500</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>17</v>
-      </c>
-      <c r="B99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D99">
         <v>28</v>
       </c>
       <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
         <v>2690</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>5</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>50</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>670</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>17</v>
-      </c>
-      <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" t="s">
-        <v>14</v>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D100">
         <v>28</v>
       </c>
       <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
         <v>5800</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>16</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>1000</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>2560</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>17</v>
-      </c>
-      <c r="B101" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" t="s">
-        <v>15</v>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>BR03</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D101">
         <v>28</v>
       </c>
       <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
         <v>4180</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>5</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>80</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>920</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>18</v>
-      </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>11</v>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D102">
         <v>28</v>
       </c>
       <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
         <v>2040</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>5</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>350</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>600</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>3500</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
-        <v>12</v>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D103">
         <v>28</v>
       </c>
       <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
         <v>2650</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>7</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>350</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>810</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>3500</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>18</v>
-      </c>
-      <c r="B104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" t="s">
-        <v>13</v>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D104">
         <v>28</v>
       </c>
       <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
         <v>8010</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>26</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>1000</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>2880</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>10000</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>18</v>
-      </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>14</v>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D105">
         <v>28</v>
       </c>
       <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105">
         <v>1510</v>
       </c>
-      <c r="F105">
-        <v>4</v>
-      </c>
       <c r="G105">
+        <v>4</v>
+      </c>
+      <c r="H105">
         <v>90</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>510</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>900</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>18</v>
-      </c>
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>15</v>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D106">
         <v>28</v>
       </c>
       <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
         <v>6300</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>30</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>570</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>3100</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>5700</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>18</v>
-      </c>
-      <c r="B107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D107">
         <v>28</v>
       </c>
       <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107">
         <v>2060</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>5</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>400</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>310</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>4000</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" t="s">
-        <v>12</v>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D108">
         <v>28</v>
       </c>
       <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
         <v>5200</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>40</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>150</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>3020</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>1500</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>18</v>
-      </c>
-      <c r="B109" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" t="s">
-        <v>13</v>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D109">
         <v>28</v>
       </c>
       <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109">
         <v>6710</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>50</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>650</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>3790</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>6500</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" t="s">
-        <v>14</v>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D110">
         <v>28</v>
       </c>
       <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
         <v>4820</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>28</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>30</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>2660</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>18</v>
-      </c>
-      <c r="B111" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" t="s">
-        <v>15</v>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>BR04</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D111">
         <v>28</v>
       </c>
       <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111">
         <v>2230</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>5</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>330</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>390</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>3300</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>19</v>
-      </c>
-      <c r="B112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>11</v>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D112">
         <v>28</v>
       </c>
       <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
         <v>3880</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>8</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>200</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>1760</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>2000</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>19</v>
-      </c>
-      <c r="B113" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" t="s">
-        <v>12</v>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D113">
         <v>28</v>
       </c>
       <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
         <v>1240</v>
       </c>
-      <c r="F113">
-        <v>2</v>
-      </c>
       <c r="G113">
+        <v>2</v>
+      </c>
+      <c r="H113">
         <v>100</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>440</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>1000</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>19</v>
-      </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" t="s">
-        <v>13</v>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D114">
         <v>28</v>
       </c>
       <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114">
         <v>2480</v>
       </c>
-      <c r="F114">
-        <v>4</v>
-      </c>
       <c r="G114">
+        <v>4</v>
+      </c>
+      <c r="H114">
         <v>170</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>560</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>1700</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" t="s">
-        <v>14</v>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D115">
         <v>28</v>
       </c>
       <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
         <v>2400</v>
       </c>
-      <c r="F115">
-        <v>4</v>
-      </c>
       <c r="G115">
+        <v>4</v>
+      </c>
+      <c r="H115">
         <v>150</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>760</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>1500</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>19</v>
-      </c>
-      <c r="B116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" t="s">
-        <v>15</v>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>First Simulation</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D116">
         <v>28</v>
       </c>
       <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116">
         <v>2790</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>6</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>200</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>1230</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>2000</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>19</v>
-      </c>
-      <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" t="s">
-        <v>11</v>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D117">
         <v>28</v>
       </c>
       <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
         <v>3870</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>6</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>100</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>1240</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>1000</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>19</v>
-      </c>
-      <c r="B118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" t="s">
-        <v>12</v>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D118">
         <v>28</v>
       </c>
       <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118">
         <v>2630</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>7</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>60</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>1240</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>600</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>19</v>
-      </c>
-      <c r="B119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" t="s">
-        <v>13</v>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D119">
         <v>28</v>
       </c>
       <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
         <v>1640</v>
       </c>
-      <c r="F119">
-        <v>4</v>
-      </c>
       <c r="G119">
+        <v>4</v>
+      </c>
+      <c r="H119">
         <v>250</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>360</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>2500</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>19</v>
-      </c>
-      <c r="B120" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" t="s">
-        <v>14</v>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D120">
         <v>28</v>
       </c>
       <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120">
         <v>1320</v>
       </c>
-      <c r="F120">
-        <v>2</v>
-      </c>
       <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120">
         <v>250</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>240</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>2500</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>19</v>
-      </c>
-      <c r="B121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" t="s">
-        <v>15</v>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D121">
         <v>28</v>
       </c>
       <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
         <v>6100</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>20</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>180</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>2910</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>1800</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" t="s">
-        <v>11</v>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D122">
         <v>35</v>
       </c>
       <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
         <v>4070</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>14</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>370</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>1430</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>3700</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" t="s">
-        <v>12</v>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D123">
         <v>35</v>
       </c>
       <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123">
         <v>6150</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>13</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>260</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>1480</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>2600</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" t="s">
-        <v>13</v>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D124">
         <v>35</v>
       </c>
       <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124">
         <v>7660</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>21</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>700</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>2040</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>7000</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" t="s">
-        <v>14</v>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D125">
         <v>35</v>
       </c>
       <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
         <v>3200</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>7</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>250</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>760</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>2500</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" t="s">
-        <v>15</v>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>BR02</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D126">
         <v>35</v>
       </c>
       <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
         <v>7050</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>30</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>300</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>3490</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>3000</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>19</v>
-      </c>
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>azzurro</t>
+        </is>
       </c>
       <c r="D127">
         <v>35</v>
       </c>
       <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127">
         <v>8030</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>30</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>300</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>4160</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>3000</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>19</v>
-      </c>
-      <c r="B128" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" t="s">
-        <v>12</v>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>blu</t>
+        </is>
       </c>
       <c r="D128">
         <v>35</v>
       </c>
       <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128">
         <v>4380</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>13</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>100</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>1750</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>1000</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>19</v>
-      </c>
-      <c r="B129" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" t="s">
-        <v>13</v>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>giallo</t>
+        </is>
       </c>
       <c r="D129">
         <v>35</v>
       </c>
       <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129">
         <v>1760</v>
       </c>
-      <c r="F129">
-        <v>2</v>
-      </c>
       <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
         <v>80</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>120</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>800</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>19</v>
-      </c>
-      <c r="B130" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" t="s">
-        <v>14</v>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>rosa</t>
+        </is>
       </c>
       <c r="D130">
         <v>35</v>
       </c>
       <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130">
         <v>1520</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>1</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>230</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>200</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>2300</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>19</v>
-      </c>
-      <c r="B131" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" t="s">
-        <v>15</v>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>BR05</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Second Simulation</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>rosso</t>
+        </is>
       </c>
       <c r="D131">
         <v>35</v>
       </c>
       <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131">
         <v>9380</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>29</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>530</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>3280</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>5300</v>
       </c>
     </row>
